--- a/teaching/traditional_assets/database/data/south_korea/south_korea_financial_svcs_non_bank_insurance.xlsx
+++ b/teaching/traditional_assets/database/data/south_korea/south_korea_financial_svcs_non_bank_insurance.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ20"/>
+  <dimension ref="A1:AQ17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,124 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0417</v>
+        <v>0.1018</v>
       </c>
       <c r="E2">
-        <v>0.138</v>
+        <v>0.1885</v>
       </c>
       <c r="F2">
-        <v>0.004</v>
+        <v>0.05</v>
       </c>
       <c r="G2">
-        <v>0.02491535523342185</v>
+        <v>0.0202278501609562</v>
       </c>
       <c r="H2">
-        <v>0.02438005854002273</v>
+        <v>0.01974182591783014</v>
       </c>
       <c r="I2">
-        <v>0.01415191550553716</v>
+        <v>0.01261734275842309</v>
       </c>
       <c r="J2">
-        <v>0.01178685463639749</v>
+        <v>0.01003834829201719</v>
       </c>
       <c r="K2">
-        <v>1340.926</v>
+        <v>1687.372</v>
       </c>
       <c r="L2">
-        <v>0.05664850871224834</v>
+        <v>0.06282875194760634</v>
       </c>
       <c r="M2">
-        <v>451.642</v>
+        <v>792.9032</v>
       </c>
       <c r="N2">
-        <v>0.03914180304213419</v>
+        <v>0.06604378579543752</v>
       </c>
       <c r="O2">
-        <v>0.3368135154363477</v>
+        <v>0.4699042060671861</v>
       </c>
       <c r="P2">
-        <v>363.917</v>
+        <v>457.3532</v>
       </c>
       <c r="Q2">
-        <v>0.03153906753066444</v>
+        <v>0.03809460823674049</v>
       </c>
       <c r="R2">
-        <v>0.2713923065105756</v>
+        <v>0.2710446777592612</v>
       </c>
       <c r="S2">
-        <v>87.72499999999999</v>
+        <v>335.55</v>
       </c>
       <c r="T2">
-        <v>0.1942356999570456</v>
+        <v>0.4231916329761312</v>
       </c>
       <c r="U2">
-        <v>5566.758</v>
+        <v>10229.332</v>
       </c>
       <c r="V2">
-        <v>0.4824461525261708</v>
+        <v>0.8520381951269895</v>
       </c>
       <c r="W2">
-        <v>0.05812373398972224</v>
+        <v>0.1089285714285714</v>
       </c>
       <c r="X2">
-        <v>0.03251844416325336</v>
+        <v>0.02233051806784971</v>
       </c>
       <c r="Y2">
-        <v>0.02560528982646888</v>
+        <v>0.08659805336072171</v>
       </c>
       <c r="Z2">
-        <v>0.1962733314880813</v>
+        <v>0.1849971114225866</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.02979521661088413</v>
+        <v>0.02067485638167749</v>
       </c>
       <c r="AC2">
-        <v>-0.02979521661088413</v>
+        <v>-0.01850230851388648</v>
       </c>
       <c r="AD2">
-        <v>133159.237</v>
+        <v>132709.834</v>
       </c>
       <c r="AE2">
-        <v>862.3561017358122</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>134021.5931017358</v>
+        <v>132709.834</v>
       </c>
       <c r="AG2">
-        <v>128454.8351017358</v>
+        <v>122480.502</v>
       </c>
       <c r="AH2">
-        <v>0.92072963794963</v>
+        <v>0.9170391870938766</v>
       </c>
       <c r="AI2">
-        <v>0.8620531894262833</v>
+        <v>0.8501771504640034</v>
       </c>
       <c r="AJ2">
-        <v>0.9175774980634651</v>
+        <v>0.9107289964618086</v>
       </c>
       <c r="AK2">
-        <v>0.8569303695702859</v>
+        <v>0.8396704287879305</v>
       </c>
       <c r="AL2">
-        <v>158.133</v>
+        <v>47.512</v>
       </c>
       <c r="AM2">
-        <v>147.309</v>
+        <v>34.804</v>
       </c>
       <c r="AN2">
-        <v>212.0471312323837</v>
+        <v>286.1544170601807</v>
       </c>
       <c r="AO2">
-        <v>2.908064730321944</v>
+        <v>7.132092944940226</v>
       </c>
       <c r="AP2">
-        <v>204.5556875356081</v>
+        <v>264.0975095413675</v>
       </c>
       <c r="AQ2">
-        <v>3.121744088955868</v>
+        <v>9.73623721411332</v>
       </c>
     </row>
     <row r="3">
@@ -719,7 +719,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sangsangin Co., Ltd. (KOSDAQ:A038540)</t>
+          <t>SCI Information Service Inc. (KOSDAQ:A036120)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -728,121 +728,121 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.249</v>
+        <v>0.061</v>
       </c>
       <c r="E3">
-        <v>0.454</v>
+        <v>0.527</v>
       </c>
       <c r="G3">
-        <v>0.6242782450556945</v>
+        <v>0.1870824053452116</v>
       </c>
       <c r="H3">
-        <v>0.6219595362582406</v>
+        <v>0.1870824053452116</v>
       </c>
       <c r="I3">
-        <v>0.5696749261195726</v>
+        <v>0.1639198218262806</v>
       </c>
       <c r="J3">
-        <v>0.4301936401501762</v>
+        <v>0.1315768973403777</v>
       </c>
       <c r="K3">
-        <v>116.3</v>
+        <v>5.21</v>
       </c>
       <c r="L3">
-        <v>0.2643782677881337</v>
+        <v>0.1160356347438753</v>
       </c>
       <c r="M3">
-        <v>14.1</v>
+        <v>2.0414</v>
       </c>
       <c r="N3">
-        <v>0.03477188655980271</v>
+        <v>0.01447801418439716</v>
       </c>
       <c r="O3">
-        <v>0.1212381771281169</v>
+        <v>0.3918234165067178</v>
       </c>
       <c r="P3">
-        <v>-0</v>
+        <v>2.0414</v>
       </c>
       <c r="Q3">
-        <v>-0</v>
+        <v>0.01447801418439716</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>0.3918234165067178</v>
       </c>
       <c r="S3">
-        <v>14.1</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>139.2</v>
+        <v>9.01</v>
       </c>
       <c r="V3">
-        <v>0.3432799013563502</v>
+        <v>0.06390070921985816</v>
       </c>
       <c r="W3">
-        <v>0.3313390313390313</v>
+        <v>0.2846994535519126</v>
       </c>
       <c r="X3">
-        <v>0.03228284137913404</v>
+        <v>0.01787235879839418</v>
       </c>
       <c r="Y3">
-        <v>0.2990561899598972</v>
+        <v>0.2668270947535184</v>
       </c>
       <c r="Z3">
-        <v>1.7596</v>
+        <v>4.145891043397969</v>
       </c>
       <c r="AA3">
-        <v>0.7569687292082503</v>
+        <v>0.545503480201566</v>
       </c>
       <c r="AB3">
-        <v>0.03081276250331421</v>
+        <v>0.01789647335938986</v>
       </c>
       <c r="AC3">
-        <v>0.7261559667049361</v>
+        <v>0.5276070068421762</v>
       </c>
       <c r="AD3">
-        <v>290.6</v>
+        <v>0.717</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>290.6</v>
+        <v>0.717</v>
       </c>
       <c r="AG3">
-        <v>151.4</v>
+        <v>-8.292999999999999</v>
       </c>
       <c r="AH3">
-        <v>0.4174687544892975</v>
+        <v>0.005059378903025043</v>
       </c>
       <c r="AI3">
-        <v>0.3677084651398204</v>
+        <v>0.02832089110084133</v>
       </c>
       <c r="AJ3">
-        <v>0.2718620937331658</v>
+        <v>-0.06249105171543325</v>
       </c>
       <c r="AK3">
-        <v>0.2325295653509446</v>
+        <v>-0.5085546084503586</v>
       </c>
       <c r="AL3">
-        <v>102.4</v>
+        <v>0.018</v>
       </c>
       <c r="AM3">
-        <v>101.958</v>
+        <v>-0.153</v>
       </c>
       <c r="AN3">
-        <v>1.139607843137255</v>
+        <v>0.07338792221084954</v>
       </c>
       <c r="AO3">
-        <v>2.447265625</v>
+        <v>408.8888888888889</v>
       </c>
       <c r="AP3">
-        <v>0.5937254901960786</v>
+        <v>-0.8488229273285568</v>
       </c>
       <c r="AQ3">
-        <v>2.457874811196767</v>
+        <v>-48.10457516339869</v>
       </c>
     </row>
     <row r="4">
@@ -853,7 +853,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SCI Information Service Inc. (KOSDAQ:A036120)</t>
+          <t>Korea Ratings Co., Ltd. (KOSDAQ:A034950)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -862,115 +862,121 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.0522</v>
+        <v>0.0786</v>
       </c>
       <c r="E4">
-        <v>0.7090000000000001</v>
+        <v>0.118</v>
       </c>
       <c r="G4">
-        <v>0.05877598152424943</v>
+        <v>0.3642962056303549</v>
       </c>
       <c r="H4">
-        <v>0.05842956120092379</v>
+        <v>0.3635250917992656</v>
       </c>
       <c r="I4">
-        <v>0.1258660508083141</v>
+        <v>0.3329253365973072</v>
       </c>
       <c r="J4">
-        <v>0.09791848361100609</v>
+        <v>0.2420111100649657</v>
       </c>
       <c r="K4">
-        <v>4.73</v>
+        <v>16.8</v>
       </c>
       <c r="L4">
-        <v>0.1092378752886836</v>
+        <v>0.2056303549571603</v>
       </c>
       <c r="M4">
-        <v>-0</v>
+        <v>33.004</v>
       </c>
       <c r="N4">
-        <v>-0</v>
+        <v>0.07854355069014754</v>
       </c>
       <c r="O4">
-        <v>-0</v>
+        <v>1.964523809523809</v>
       </c>
       <c r="P4">
-        <v>-0</v>
+        <v>33.004</v>
       </c>
       <c r="Q4">
-        <v>-0</v>
+        <v>0.07854355069014754</v>
       </c>
       <c r="R4">
-        <v>-0</v>
+        <v>1.964523809523809</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
       <c r="U4">
-        <v>8.1</v>
+        <v>80</v>
       </c>
       <c r="V4">
-        <v>0.1065789473684211</v>
+        <v>0.1903855306996668</v>
       </c>
       <c r="W4">
-        <v>0.3217687074829932</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="X4">
-        <v>0.02776215333346368</v>
+        <v>0.01786051911236879</v>
       </c>
       <c r="Y4">
-        <v>0.2940065541495296</v>
+        <v>0.1726156713638217</v>
       </c>
       <c r="Z4">
-        <v>3.814977973568282</v>
+        <v>1.115221337992602</v>
       </c>
       <c r="AA4">
-        <v>0.3735568581811951</v>
+        <v>0.2698959539757258</v>
       </c>
       <c r="AB4">
-        <v>0.02779379948801253</v>
+        <v>0.0178599646992852</v>
       </c>
       <c r="AC4">
-        <v>0.3457630586931826</v>
+        <v>0.2520359892764406</v>
       </c>
       <c r="AD4">
-        <v>0.63</v>
+        <v>1.36</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.63</v>
+        <v>1.36</v>
       </c>
       <c r="AG4">
-        <v>-7.47</v>
+        <v>-78.64</v>
       </c>
       <c r="AH4">
-        <v>0.008221323241550307</v>
+        <v>0.003226112534396053</v>
       </c>
       <c r="AI4">
-        <v>0.02967498822421102</v>
+        <v>0.01469317199654278</v>
       </c>
       <c r="AJ4">
-        <v>-0.1090033561943674</v>
+        <v>-0.230237732755592</v>
       </c>
       <c r="AK4">
-        <v>-0.5689261233815688</v>
+        <v>-6.261146496815286</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>0.044</v>
       </c>
       <c r="AM4">
-        <v>-0.116</v>
+        <v>-1.756</v>
       </c>
       <c r="AN4">
-        <v>0.08433734939759037</v>
+        <v>0.04548494983277593</v>
+      </c>
+      <c r="AO4">
+        <v>618.1818181818182</v>
       </c>
       <c r="AP4">
-        <v>-1</v>
+        <v>-2.630100334448161</v>
       </c>
       <c r="AQ4">
-        <v>-46.98275862068965</v>
+        <v>-15.48974943052392</v>
       </c>
     </row>
     <row r="5">
@@ -981,7 +987,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Korea Ratings Co., Ltd. (KOSDAQ:A034950)</t>
+          <t>NICE Holdings Co., Ltd. (KOSE:A034310)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -990,121 +996,121 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.08550000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="E5">
-        <v>0.122</v>
+        <v>-0.4</v>
       </c>
       <c r="G5">
-        <v>0.3163089005235602</v>
+        <v>0.1487947280189606</v>
       </c>
       <c r="H5">
-        <v>0.3154450261780105</v>
+        <v>0.142031331290826</v>
       </c>
       <c r="I5">
-        <v>0.3232984293193717</v>
+        <v>0.07595814786981907</v>
       </c>
       <c r="J5">
-        <v>0.2405828311765286</v>
+        <v>0.05542695794894151</v>
       </c>
       <c r="K5">
-        <v>16.2</v>
+        <v>2.24</v>
       </c>
       <c r="L5">
-        <v>0.2120418848167539</v>
+        <v>0.001294872535984739</v>
       </c>
       <c r="M5">
-        <v>8.786199999999999</v>
+        <v>14.7542</v>
       </c>
       <c r="N5">
-        <v>0.03892866637128932</v>
+        <v>0.02180638486550399</v>
       </c>
       <c r="O5">
-        <v>0.542358024691358</v>
+        <v>6.586696428571428</v>
       </c>
       <c r="P5">
-        <v>8.786199999999999</v>
+        <v>7.5042</v>
       </c>
       <c r="Q5">
-        <v>0.03892866637128932</v>
+        <v>0.0110910434525569</v>
       </c>
       <c r="R5">
-        <v>0.542358024691358</v>
+        <v>3.350089285714285</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>7.250000000000001</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.4913855037887517</v>
       </c>
       <c r="U5">
-        <v>16</v>
+        <v>493.6</v>
       </c>
       <c r="V5">
-        <v>0.07089056269384139</v>
+        <v>0.7295300029559563</v>
       </c>
       <c r="W5">
-        <v>0.1881533101045296</v>
+        <v>0.00388753904894134</v>
       </c>
       <c r="X5">
-        <v>0.02775534063009416</v>
+        <v>0.02315128360386791</v>
       </c>
       <c r="Y5">
-        <v>0.1603979694744355</v>
+        <v>-0.01926374455492657</v>
       </c>
       <c r="Z5">
-        <v>0.9937565036420397</v>
+        <v>3.105745062836625</v>
       </c>
       <c r="AA5">
-        <v>0.2390807531462902</v>
+        <v>0.1721420009979784</v>
       </c>
       <c r="AB5">
-        <v>0.02773028862211686</v>
+        <v>0.02067485638167749</v>
       </c>
       <c r="AC5">
-        <v>0.2113504645241734</v>
+        <v>0.1514671446163009</v>
       </c>
       <c r="AD5">
-        <v>1.63</v>
+        <v>561.1</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>1.63</v>
+        <v>561.1</v>
       </c>
       <c r="AG5">
-        <v>-14.37</v>
+        <v>67.5</v>
       </c>
       <c r="AH5">
-        <v>0.007170193111335943</v>
+        <v>0.4533408742021491</v>
       </c>
       <c r="AI5">
-        <v>0.01565351003553251</v>
+        <v>0.3400399975759045</v>
       </c>
       <c r="AJ5">
-        <v>-0.06799791794823264</v>
+        <v>0.09071361376159118</v>
       </c>
       <c r="AK5">
-        <v>-0.1630545784636333</v>
+        <v>0.05836575875486381</v>
       </c>
       <c r="AL5">
-        <v>0.005</v>
+        <v>15.2</v>
       </c>
       <c r="AM5">
-        <v>-1.555</v>
+        <v>7.129999999999999</v>
       </c>
       <c r="AN5">
-        <v>0.06104868913857678</v>
+        <v>2.315724308708213</v>
       </c>
       <c r="AO5">
-        <v>4940</v>
+        <v>8.644736842105264</v>
       </c>
       <c r="AP5">
-        <v>-0.5382022471910113</v>
+        <v>0.2785802723895996</v>
       </c>
       <c r="AQ5">
-        <v>-15.88424437299035</v>
+        <v>18.42917251051894</v>
       </c>
     </row>
     <row r="6">
@@ -1115,7 +1121,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NICE Holdings Co., Ltd. (KOSE:A034310)</t>
+          <t>Sangsangin Co., Ltd. (KOSDAQ:A038540)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1124,121 +1130,121 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.18</v>
+        <v>0.231</v>
       </c>
       <c r="E6">
-        <v>0.154</v>
+        <v>0.194</v>
       </c>
       <c r="G6">
-        <v>0.1284670613427384</v>
+        <v>0.39504072831816</v>
       </c>
       <c r="H6">
-        <v>0.1227484569845069</v>
+        <v>0.3919501677048395</v>
       </c>
       <c r="I6">
-        <v>0.07135659402947475</v>
+        <v>0.2299952084331577</v>
       </c>
       <c r="J6">
-        <v>0.05367183626449872</v>
+        <v>0.1724237150453382</v>
       </c>
       <c r="K6">
-        <v>55.2</v>
+        <v>59.3</v>
       </c>
       <c r="L6">
-        <v>0.0347650837636982</v>
+        <v>0.1420699568758984</v>
       </c>
       <c r="M6">
-        <v>6.012</v>
+        <v>9.8184</v>
       </c>
       <c r="N6">
-        <v>0.008777923784494086</v>
+        <v>0.03040693713223909</v>
       </c>
       <c r="O6">
-        <v>0.1089130434782609</v>
+        <v>0.1655716694772344</v>
       </c>
       <c r="P6">
-        <v>5.685</v>
+        <v>9.4084</v>
       </c>
       <c r="Q6">
-        <v>0.00830048182216382</v>
+        <v>0.02913719417776402</v>
       </c>
       <c r="R6">
-        <v>0.1029891304347826</v>
+        <v>0.1586576728499157</v>
       </c>
       <c r="S6">
-        <v>0.327</v>
+        <v>0.4100000000000001</v>
       </c>
       <c r="T6">
-        <v>0.05439121756487025</v>
+        <v>0.04175833129634157</v>
       </c>
       <c r="U6">
-        <v>447.4</v>
+        <v>180.1</v>
       </c>
       <c r="V6">
-        <v>0.6532340487662432</v>
+        <v>0.5577578197584392</v>
       </c>
       <c r="W6">
-        <v>0.09776833156216791</v>
+        <v>0.1395951035781544</v>
       </c>
       <c r="X6">
-        <v>0.03275404694737269</v>
+        <v>0.02233051806784971</v>
       </c>
       <c r="Y6">
-        <v>0.06501428461479522</v>
+        <v>0.1172645855103047</v>
       </c>
       <c r="Z6">
-        <v>3.777777777777776</v>
+        <v>0.7765581395348837</v>
       </c>
       <c r="AA6">
-        <v>0.2027602703325506</v>
+        <v>0.1338970393673007</v>
       </c>
       <c r="AB6">
-        <v>0.02900463622754745</v>
+        <v>0.0224575251684502</v>
       </c>
       <c r="AC6">
-        <v>0.1737556341050032</v>
+        <v>0.1114395141988505</v>
       </c>
       <c r="AD6">
-        <v>541.4</v>
+        <v>226.4</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>541.4</v>
+        <v>226.4</v>
       </c>
       <c r="AG6">
-        <v>94</v>
+        <v>46.30000000000001</v>
       </c>
       <c r="AH6">
-        <v>0.4414906629699095</v>
+        <v>0.4121609320953942</v>
       </c>
       <c r="AI6">
-        <v>0.363380092623666</v>
+        <v>0.2832124093069803</v>
       </c>
       <c r="AJ6">
-        <v>0.120683014507639</v>
+        <v>0.1254062838569881</v>
       </c>
       <c r="AK6">
-        <v>0.09016786570743406</v>
+        <v>0.07476182787017603</v>
       </c>
       <c r="AL6">
-        <v>16.7</v>
+        <v>1.55</v>
       </c>
       <c r="AM6">
-        <v>10.34</v>
+        <v>1.265</v>
       </c>
       <c r="AN6">
-        <v>2.448665762098598</v>
+        <v>2.213098729227762</v>
       </c>
       <c r="AO6">
-        <v>6.784431137724551</v>
+        <v>61.93548387096774</v>
       </c>
       <c r="AP6">
-        <v>0.4251469923111714</v>
+        <v>0.4525904203323559</v>
       </c>
       <c r="AQ6">
-        <v>10.95744680851064</v>
+        <v>75.88932806324109</v>
       </c>
     </row>
     <row r="7">
@@ -1258,121 +1264,121 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.0934</v>
+        <v>0.0344</v>
       </c>
       <c r="E7">
-        <v>0.0119</v>
+        <v>0.00754</v>
       </c>
       <c r="G7">
-        <v>0.1832010582010582</v>
+        <v>0.245260663507109</v>
       </c>
       <c r="H7">
-        <v>0.1832010582010582</v>
+        <v>0.245260663507109</v>
       </c>
       <c r="I7">
-        <v>0.1779100529100529</v>
+        <v>0.2277843601895735</v>
       </c>
       <c r="J7">
-        <v>0.1308162153750389</v>
+        <v>0.1737980461321693</v>
       </c>
       <c r="K7">
-        <v>32.5</v>
+        <v>36.7</v>
       </c>
       <c r="L7">
-        <v>0.07164902998236332</v>
+        <v>0.1087085308056872</v>
       </c>
       <c r="M7">
-        <v>5.27</v>
+        <v>11.3764</v>
       </c>
       <c r="N7">
-        <v>0.03245073891625615</v>
+        <v>0.06919951338199513</v>
       </c>
       <c r="O7">
-        <v>0.1621538461538461</v>
+        <v>0.309983651226158</v>
       </c>
       <c r="P7">
-        <v>3.3</v>
+        <v>8.8064</v>
       </c>
       <c r="Q7">
-        <v>0.02032019704433497</v>
+        <v>0.0535669099756691</v>
       </c>
       <c r="R7">
-        <v>0.1015384615384615</v>
+        <v>0.2399564032697548</v>
       </c>
       <c r="S7">
-        <v>1.97</v>
+        <v>2.57</v>
       </c>
       <c r="T7">
-        <v>0.3738140417457305</v>
+        <v>0.2259062620864246</v>
       </c>
       <c r="U7">
-        <v>24.9</v>
+        <v>16.2</v>
       </c>
       <c r="V7">
-        <v>0.1533251231527094</v>
+        <v>0.09854014598540145</v>
       </c>
       <c r="W7">
-        <v>0.1102068497795863</v>
+        <v>0.1223333333333333</v>
       </c>
       <c r="X7">
-        <v>0.05015606621163653</v>
+        <v>0.01923062199924834</v>
       </c>
       <c r="Y7">
-        <v>0.06005078356794978</v>
+        <v>0.103102711334085</v>
       </c>
       <c r="Z7">
-        <v>0.4598540145985402</v>
+        <v>0.3989129150419473</v>
       </c>
       <c r="AA7">
-        <v>0.06015636181479892</v>
+        <v>0.06933028521117851</v>
       </c>
       <c r="AB7">
-        <v>0.02999383102931022</v>
+        <v>0.01895552064730496</v>
       </c>
       <c r="AC7">
-        <v>0.03016253078548871</v>
+        <v>0.05037476456387355</v>
       </c>
       <c r="AD7">
-        <v>571.2</v>
+        <v>35.7</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>571.2</v>
+        <v>35.7</v>
       </c>
       <c r="AG7">
-        <v>546.3000000000001</v>
+        <v>19.5</v>
       </c>
       <c r="AH7">
-        <v>0.7786259541984734</v>
+        <v>0.1784107946026987</v>
       </c>
       <c r="AI7">
-        <v>0.6556473829201102</v>
+        <v>0.09431968295904888</v>
       </c>
       <c r="AJ7">
-        <v>0.7708480316071681</v>
+        <v>0.1060358890701468</v>
       </c>
       <c r="AK7">
-        <v>0.6455157745480327</v>
+        <v>0.05382279878553686</v>
       </c>
       <c r="AL7">
-        <v>36.8</v>
+        <v>30.7</v>
       </c>
       <c r="AM7">
-        <v>36.8</v>
+        <v>30.42</v>
       </c>
       <c r="AN7">
-        <v>6.881927710843374</v>
+        <v>0.4490566037735849</v>
       </c>
       <c r="AO7">
-        <v>2.192934782608696</v>
+        <v>2.504885993485342</v>
       </c>
       <c r="AP7">
-        <v>6.581927710843375</v>
+        <v>0.2452830188679246</v>
       </c>
       <c r="AQ7">
-        <v>2.192934782608696</v>
+        <v>2.527942143326759</v>
       </c>
     </row>
     <row r="8">
@@ -1404,10 +1410,10 @@
         <v>-0</v>
       </c>
       <c r="K8">
-        <v>0.132</v>
+        <v>0.099</v>
       </c>
       <c r="L8">
-        <v>-5.739130434782609</v>
+        <v>-4.500000000000001</v>
       </c>
       <c r="M8">
         <v>-0</v>
@@ -1431,61 +1437,61 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0.043</v>
+        <v>1.55</v>
       </c>
       <c r="V8">
-        <v>0.003257575757575757</v>
+        <v>0.1076388888888889</v>
       </c>
       <c r="W8">
-        <v>0.01047619047619048</v>
+        <v>0.008389830508474576</v>
       </c>
       <c r="X8">
-        <v>0.02805638916688818</v>
+        <v>0.01817871239041858</v>
       </c>
       <c r="Y8">
-        <v>-0.01758019869069771</v>
+        <v>-0.009788881881944007</v>
       </c>
       <c r="Z8">
-        <v>-0.001730233957722109</v>
+        <v>-0.001763527054108216</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.02786061534266137</v>
+        <v>0.01815408408867064</v>
       </c>
       <c r="AC8">
-        <v>-0.02786061534266137</v>
+        <v>-0.01815408408867064</v>
       </c>
       <c r="AD8">
-        <v>0.718</v>
+        <v>0.762</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>0.718</v>
+        <v>0.762</v>
       </c>
       <c r="AG8">
-        <v>0.6749999999999999</v>
+        <v>-0.788</v>
       </c>
       <c r="AH8">
-        <v>0.05158787182066389</v>
+        <v>0.05025722200237435</v>
       </c>
       <c r="AI8">
-        <v>0.0573574053363157</v>
+        <v>0.05878722419379726</v>
       </c>
       <c r="AJ8">
-        <v>0.04864864864864864</v>
+        <v>-0.05789009697325889</v>
       </c>
       <c r="AK8">
-        <v>0.05410821643286572</v>
+        <v>-0.06905012267788294</v>
       </c>
       <c r="AL8">
         <v>0</v>
       </c>
       <c r="AM8">
-        <v>-0.224</v>
+        <v>-0.148</v>
       </c>
       <c r="AQ8">
         <v>-0</v>
@@ -1499,7 +1505,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Shinhan 4th Special Purpose Acquisition Co., Ltd. (KOSDAQ:A277480)</t>
+          <t>Kiwoom No.5 Special Purpose Acquisition Company (KOSDAQ:A311270)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1520,10 +1526,10 @@
         <v>-0</v>
       </c>
       <c r="K9">
-        <v>0.117</v>
+        <v>0.03</v>
       </c>
       <c r="L9">
-        <v>-5.571428571428571</v>
+        <v>-0.7142857142857142</v>
       </c>
       <c r="M9">
         <v>-0</v>
@@ -1547,61 +1553,61 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>1.63</v>
+        <v>0.706</v>
       </c>
       <c r="V9">
-        <v>0.1537735849056604</v>
+        <v>0.1035190615835777</v>
       </c>
       <c r="W9">
-        <v>0.01183013144590495</v>
+        <v>0.005042016806722689</v>
       </c>
       <c r="X9">
-        <v>0.02816923160663134</v>
+        <v>0.01852065614261628</v>
       </c>
       <c r="Y9">
-        <v>-0.01633910016072639</v>
+        <v>-0.01347863933589359</v>
       </c>
       <c r="Z9">
-        <v>-0.002304653204565408</v>
+        <v>-0.007094594594594594</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.02790651075191201</v>
+        <v>0.01844071023599986</v>
       </c>
       <c r="AC9">
-        <v>-0.02790651075191201</v>
+        <v>-0.01844071023599986</v>
       </c>
       <c r="AD9">
-        <v>0.764</v>
+        <v>0.725</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>0.764</v>
+        <v>0.725</v>
       </c>
       <c r="AG9">
-        <v>-0.8659999999999999</v>
+        <v>0.01900000000000002</v>
       </c>
       <c r="AH9">
-        <v>0.06722984864484337</v>
+        <v>0.09609012591119946</v>
       </c>
       <c r="AI9">
-        <v>0.07614112019134942</v>
+        <v>0.1054545454545455</v>
       </c>
       <c r="AJ9">
-        <v>-0.08896650914320936</v>
+        <v>0.002778183945021204</v>
       </c>
       <c r="AK9">
-        <v>-0.1030461684911947</v>
+        <v>0.003079915707570111</v>
       </c>
       <c r="AL9">
         <v>0</v>
       </c>
       <c r="AM9">
-        <v>-0.168</v>
+        <v>-0.102</v>
       </c>
       <c r="AQ9">
         <v>-0</v>
@@ -1615,7 +1621,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Korea No.5 Special Purpose Acquisition Co., Ltd. (KOSDAQ:A271740)</t>
+          <t>KB No.18 Special Purpose Acquisition Company (KOSDAQ:A323940)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1636,10 +1642,10 @@
         <v>-0</v>
       </c>
       <c r="K10">
-        <v>0.053</v>
+        <v>0.093</v>
       </c>
       <c r="L10">
-        <v>-4.818181818181818</v>
+        <v>-1.978723404255319</v>
       </c>
       <c r="M10">
         <v>-0</v>
@@ -1663,61 +1669,61 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0.645</v>
+        <v>0.046</v>
       </c>
       <c r="V10">
-        <v>0.09097320169252469</v>
+        <v>0.003150684931506849</v>
       </c>
       <c r="W10">
-        <v>0.007898658718330849</v>
+        <v>0.007322834645669292</v>
       </c>
       <c r="X10">
-        <v>0.02805850175005793</v>
+        <v>0.01859871941741447</v>
       </c>
       <c r="Y10">
-        <v>-0.02015984303172708</v>
+        <v>-0.01127588477174518</v>
       </c>
       <c r="Z10">
-        <v>-0.001721170395869191</v>
+        <v>-0.003288322955292801</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.02824284736160888</v>
+        <v>0.01850230851388648</v>
       </c>
       <c r="AC10">
-        <v>-0.02824284736160888</v>
+        <v>-0.01850230851388648</v>
       </c>
       <c r="AD10">
-        <v>0.388</v>
+        <v>1.73</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>0.388</v>
+        <v>1.73</v>
       </c>
       <c r="AG10">
-        <v>-0.257</v>
+        <v>1.684</v>
       </c>
       <c r="AH10">
-        <v>0.05188553089061246</v>
+        <v>0.1059399877526026</v>
       </c>
       <c r="AI10">
-        <v>0.05827575848603185</v>
+        <v>0.115874079035499</v>
       </c>
       <c r="AJ10">
-        <v>-0.03761159080930777</v>
+        <v>0.1034143944976664</v>
       </c>
       <c r="AK10">
-        <v>-0.04274072842175287</v>
+        <v>0.1131416285944639</v>
       </c>
       <c r="AL10">
         <v>0</v>
       </c>
       <c r="AM10">
-        <v>-0.107</v>
+        <v>-0.242</v>
       </c>
       <c r="AQ10">
         <v>-0</v>
@@ -1731,7 +1737,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CNH Co., Ltd. (KOSDAQ:A023460)</t>
+          <t>Mason Capital Corporation (KOSDAQ:A021880)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1740,10 +1746,7 @@
         </is>
       </c>
       <c r="D11">
-        <v>-0.12</v>
-      </c>
-      <c r="E11">
-        <v>-0.283</v>
+        <v>-0.48</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1758,94 +1761,88 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.45</v>
+        <v>-4.2</v>
       </c>
       <c r="L11">
-        <v>0.02973300970873786</v>
+        <v>-14.18918918918919</v>
       </c>
       <c r="M11">
-        <v>1.6422</v>
+        <v>-0</v>
       </c>
       <c r="N11">
-        <v>0.02714380165289257</v>
+        <v>-0</v>
       </c>
       <c r="O11">
-        <v>0.6702857142857143</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.6222000000000001</v>
+        <v>-0</v>
       </c>
       <c r="Q11">
-        <v>0.01028429752066116</v>
+        <v>-0</v>
       </c>
       <c r="R11">
-        <v>0.2539591836734694</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>1.02</v>
-      </c>
-      <c r="T11">
-        <v>0.6211180124223602</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>13.4</v>
+        <v>3.82</v>
       </c>
       <c r="V11">
-        <v>0.2214876033057851</v>
+        <v>0.09794871794871794</v>
       </c>
       <c r="W11">
-        <v>0.02606382978723405</v>
+        <v>-0.1377049180327869</v>
       </c>
       <c r="X11">
-        <v>0.04108494820780833</v>
+        <v>0.01879887354580122</v>
       </c>
       <c r="Y11">
-        <v>-0.01502111842057428</v>
+        <v>-0.1565037915785881</v>
       </c>
       <c r="Z11">
-        <v>0.437165427854441</v>
+        <v>0.006999290612437929</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.02969561556790624</v>
+        <v>0.01929897158083328</v>
       </c>
       <c r="AC11">
-        <v>-0.02969561556790624</v>
+        <v>-0.01929897158083328</v>
       </c>
       <c r="AD11">
-        <v>126.8</v>
+        <v>5.84</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>126.8</v>
+        <v>5.84</v>
       </c>
       <c r="AG11">
-        <v>113.4</v>
+        <v>2.02</v>
       </c>
       <c r="AH11">
-        <v>0.6769887880405766</v>
+        <v>0.1302408563782337</v>
       </c>
       <c r="AI11">
-        <v>0.5840626439428834</v>
+        <v>0.1730883224659159</v>
       </c>
       <c r="AJ11">
-        <v>0.6520989074180564</v>
+        <v>0.0492442710872745</v>
       </c>
       <c r="AK11">
-        <v>0.5567010309278351</v>
+        <v>0.06751336898395723</v>
       </c>
       <c r="AL11">
         <v>0</v>
       </c>
       <c r="AM11">
-        <v>-1.09</v>
-      </c>
-      <c r="AQ11">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1856,7 +1853,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Samsung Card Co., Ltd. (KOSE:A029780)</t>
+          <t>CNH Co., Ltd. (KOSDAQ:A023460)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1865,10 +1862,7 @@
         </is>
       </c>
       <c r="D12">
-        <v>-0.09519999999999999</v>
-      </c>
-      <c r="E12">
-        <v>-0.0395</v>
+        <v>0.224</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1883,91 +1877,94 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>294.5</v>
+        <v>15.2</v>
       </c>
       <c r="L12">
-        <v>2.376916868442292</v>
+        <v>0.07106124357176249</v>
       </c>
       <c r="M12">
-        <v>181.411</v>
+        <v>2.7456</v>
       </c>
       <c r="N12">
-        <v>0.05091523996632052</v>
+        <v>0.0393352435530086</v>
       </c>
       <c r="O12">
-        <v>0.6159966044142615</v>
+        <v>0.1806315789473684</v>
       </c>
       <c r="P12">
-        <v>141.911</v>
+        <v>0.9256</v>
       </c>
       <c r="Q12">
-        <v>0.03982907662082515</v>
+        <v>0.01326074498567335</v>
       </c>
       <c r="R12">
-        <v>0.4818709677419355</v>
+        <v>0.06089473684210527</v>
       </c>
       <c r="S12">
-        <v>39.5</v>
+        <v>1.82</v>
       </c>
       <c r="T12">
-        <v>0.2177376234076214</v>
+        <v>0.6628787878787878</v>
       </c>
       <c r="U12">
-        <v>782.5</v>
+        <v>14.3</v>
       </c>
       <c r="V12">
-        <v>0.2196182991860791</v>
+        <v>0.2048710601719198</v>
       </c>
       <c r="W12">
-        <v>0.04796182596941517</v>
+        <v>0.1765389082462253</v>
       </c>
       <c r="X12">
-        <v>0.04634278934185941</v>
+        <v>0.03198916850742774</v>
       </c>
       <c r="Y12">
-        <v>0.001619036627555762</v>
+        <v>0.1445497397387976</v>
       </c>
       <c r="Z12">
-        <v>0.007021580450650587</v>
+        <v>1.082106541205039</v>
       </c>
       <c r="AA12">
         <v>0</v>
       </c>
       <c r="AB12">
-        <v>0.02989481765386202</v>
+        <v>0.02214480566585138</v>
       </c>
       <c r="AC12">
-        <v>-0.02989481765386202</v>
+        <v>-0.02214480566585138</v>
       </c>
       <c r="AD12">
-        <v>10403</v>
+        <v>154.2</v>
       </c>
       <c r="AE12">
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>10403</v>
+        <v>154.2</v>
       </c>
       <c r="AG12">
-        <v>9620.5</v>
+        <v>139.9</v>
       </c>
       <c r="AH12">
-        <v>0.7448804238865817</v>
+        <v>0.6883928571428571</v>
       </c>
       <c r="AI12">
-        <v>0.6467677157032192</v>
+        <v>0.6004672897196263</v>
       </c>
       <c r="AJ12">
-        <v>0.7297379299882428</v>
+        <v>0.6671435383881735</v>
       </c>
       <c r="AK12">
-        <v>0.6287045568908842</v>
+        <v>0.5769072164948453</v>
       </c>
       <c r="AL12">
         <v>0</v>
       </c>
       <c r="AM12">
-        <v>0</v>
+        <v>-1.61</v>
+      </c>
+      <c r="AQ12">
+        <v>-0</v>
       </c>
     </row>
     <row r="13">
@@ -1978,7 +1975,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>AJU Capital Co., Ltd. (KOSE:A033660)</t>
+          <t>Samsung Card Co., Ltd. (KOSE:A029780)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1987,10 +1984,13 @@
         </is>
       </c>
       <c r="D13">
-        <v>0.0312</v>
+        <v>-0.327</v>
       </c>
       <c r="E13">
-        <v>0.3</v>
+        <v>-0.05110000000000001</v>
+      </c>
+      <c r="F13">
+        <v>0.05</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -2005,85 +2005,85 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>82.8</v>
+        <v>353.9</v>
       </c>
       <c r="L13">
-        <v>0.2166405023547881</v>
+        <v>6.614953271028037</v>
       </c>
       <c r="M13">
-        <v>27.45</v>
+        <v>146.179</v>
       </c>
       <c r="N13">
-        <v>0.04494106090373282</v>
+        <v>0.04586439508032129</v>
       </c>
       <c r="O13">
-        <v>0.3315217391304348</v>
+        <v>0.413051709522464</v>
       </c>
       <c r="P13">
-        <v>22.68</v>
+        <v>146.179</v>
       </c>
       <c r="Q13">
-        <v>0.03713163064833007</v>
+        <v>0.04586439508032129</v>
       </c>
       <c r="R13">
-        <v>0.2739130434782609</v>
+        <v>0.413051709522464</v>
       </c>
       <c r="S13">
-        <v>4.77</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>0.1737704918032787</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>113.3</v>
+        <v>1151</v>
       </c>
       <c r="V13">
-        <v>0.185494433529797</v>
+        <v>0.3611320281124498</v>
       </c>
       <c r="W13">
-        <v>0.1262002743484225</v>
+        <v>0.06228879188960855</v>
       </c>
       <c r="X13">
-        <v>0.07143095771579745</v>
+        <v>0.04231712993674798</v>
       </c>
       <c r="Y13">
-        <v>0.05476931663262503</v>
+        <v>0.01997166195286057</v>
       </c>
       <c r="Z13">
-        <v>0.09254685456922852</v>
+        <v>0.003496252148397932</v>
       </c>
       <c r="AA13">
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>0.03026963616096479</v>
+        <v>0.02279651277328941</v>
       </c>
       <c r="AC13">
-        <v>-0.03026963616096479</v>
+        <v>-0.02279651277328941</v>
       </c>
       <c r="AD13">
-        <v>4184.5</v>
+        <v>12180.5</v>
       </c>
       <c r="AE13">
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>4184.5</v>
+        <v>12180.5</v>
       </c>
       <c r="AG13">
-        <v>4071.2</v>
+        <v>11029.5</v>
       </c>
       <c r="AH13">
-        <v>0.8726252789189415</v>
+        <v>0.7926039680628851</v>
       </c>
       <c r="AI13">
-        <v>0.8636738906088751</v>
+        <v>0.6678711248067202</v>
       </c>
       <c r="AJ13">
-        <v>0.869542930371636</v>
+        <v>0.7758129523729135</v>
       </c>
       <c r="AK13">
-        <v>0.8604095779529556</v>
+        <v>0.6454982793735515</v>
       </c>
       <c r="AL13">
         <v>0</v>
@@ -2100,7 +2100,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Han Kook Capital Co., Ltd. (KOSDAQ:A023760)</t>
+          <t>AJU Capital Co., Ltd. (KOSE:A033660)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2108,6 +2108,12 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D14">
+        <v>0.0279</v>
+      </c>
+      <c r="E14">
+        <v>0.187</v>
+      </c>
       <c r="G14">
         <v>0</v>
       </c>
@@ -2121,82 +2127,85 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>17.2</v>
+        <v>100.8</v>
       </c>
       <c r="L14">
-        <v>0.2721518987341772</v>
+        <v>0.2163090128755365</v>
       </c>
       <c r="M14">
-        <v>-0</v>
+        <v>42.669</v>
       </c>
       <c r="N14">
-        <v>-0</v>
+        <v>0.06856660774546039</v>
       </c>
       <c r="O14">
-        <v>-0</v>
+        <v>0.4233035714285714</v>
       </c>
       <c r="P14">
-        <v>-0</v>
+        <v>30.969</v>
       </c>
       <c r="Q14">
-        <v>-0</v>
+        <v>0.04976538646954846</v>
       </c>
       <c r="R14">
-        <v>-0</v>
+        <v>0.3072321428571429</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>11.7</v>
+      </c>
+      <c r="T14">
+        <v>0.2742037544821767</v>
       </c>
       <c r="U14">
-        <v>150.2</v>
+        <v>220.8</v>
       </c>
       <c r="V14">
-        <v>1.021074099252209</v>
+        <v>0.3548127912582356</v>
       </c>
       <c r="W14">
-        <v>0.07533946561541831</v>
+        <v>0.1526116578349735</v>
       </c>
       <c r="X14">
-        <v>0.09320329077049508</v>
+        <v>0.07286914731109458</v>
       </c>
       <c r="Y14">
-        <v>-0.01786382515507677</v>
+        <v>0.07974251052387892</v>
       </c>
       <c r="Z14">
-        <v>0.04426390250735397</v>
+        <v>0.09956201260549087</v>
       </c>
       <c r="AA14">
         <v>0</v>
       </c>
       <c r="AB14">
-        <v>0.03038284544813911</v>
+        <v>0.02344152591053408</v>
       </c>
       <c r="AC14">
-        <v>-0.03038284544813911</v>
+        <v>-0.02344152591053408</v>
       </c>
       <c r="AD14">
-        <v>1509.6</v>
+        <v>5346.7</v>
       </c>
       <c r="AE14">
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>1509.6</v>
+        <v>5346.7</v>
       </c>
       <c r="AG14">
-        <v>1359.4</v>
+        <v>5125.9</v>
       </c>
       <c r="AH14">
-        <v>0.9112090299993965</v>
+        <v>0.8957446808510638</v>
       </c>
       <c r="AI14">
-        <v>0.8707891093677895</v>
+        <v>0.8790444561357359</v>
       </c>
       <c r="AJ14">
-        <v>0.9023564553601062</v>
+        <v>0.8917400229637104</v>
       </c>
       <c r="AK14">
-        <v>0.8585322723253758</v>
+        <v>0.8744881943496656</v>
       </c>
       <c r="AL14">
         <v>0</v>
@@ -2213,7 +2222,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Mason Capital Corporation (KOSDAQ:A021880)</t>
+          <t>Han Kook Capital Co., Ltd. (KOSDAQ:A023760)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2222,7 +2231,10 @@
         </is>
       </c>
       <c r="D15">
-        <v>-0.0776</v>
+        <v>0.125</v>
+      </c>
+      <c r="E15">
+        <v>0.19</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2237,19 +2249,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>-4.57</v>
+        <v>24.4</v>
       </c>
       <c r="L15">
-        <v>-0.6945288753799392</v>
+        <v>0.348074179743224</v>
       </c>
       <c r="M15">
-        <v>0.005</v>
+        <v>-0</v>
       </c>
       <c r="N15">
-        <v>0.0001901140684410646</v>
+        <v>-0</v>
       </c>
       <c r="O15">
-        <v>-0.001094091903719912</v>
+        <v>-0</v>
       </c>
       <c r="P15">
         <v>-0</v>
@@ -2258,64 +2270,61 @@
         <v>-0</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S15">
-        <v>0.005</v>
-      </c>
-      <c r="T15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>3.11</v>
+        <v>241.9</v>
       </c>
       <c r="V15">
-        <v>0.1182509505703422</v>
+        <v>1.457228915662651</v>
       </c>
       <c r="W15">
-        <v>-0.1103864734299517</v>
+        <v>0.1089285714285714</v>
       </c>
       <c r="X15">
-        <v>0.03132487299556747</v>
+        <v>0.08801139410750418</v>
       </c>
       <c r="Y15">
-        <v>-0.1417113464255192</v>
+        <v>0.02091717732106724</v>
       </c>
       <c r="Z15">
-        <v>0.1194842927183584</v>
+        <v>0.0442718201338891</v>
       </c>
       <c r="AA15">
         <v>0</v>
       </c>
       <c r="AB15">
-        <v>0.03039780289215015</v>
+        <v>0.02357044931447289</v>
       </c>
       <c r="AC15">
-        <v>-0.03039780289215015</v>
+        <v>-0.02357044931447289</v>
       </c>
       <c r="AD15">
-        <v>14.9</v>
+        <v>1818.7</v>
       </c>
       <c r="AE15">
         <v>0</v>
       </c>
       <c r="AF15">
-        <v>14.9</v>
+        <v>1818.7</v>
       </c>
       <c r="AG15">
-        <v>11.79</v>
+        <v>1576.8</v>
       </c>
       <c r="AH15">
-        <v>0.3616504854368932</v>
+        <v>0.9163601551871819</v>
       </c>
       <c r="AI15">
-        <v>0.3281938325991189</v>
+        <v>0.8757222650231125</v>
       </c>
       <c r="AJ15">
-        <v>0.3095300603833027</v>
+        <v>0.9047509754418178</v>
       </c>
       <c r="AK15">
-        <v>0.2787893118940648</v>
+        <v>0.8593383835631369</v>
       </c>
       <c r="AL15">
         <v>0</v>
@@ -2340,6 +2349,12 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D16">
+        <v>0.136</v>
+      </c>
+      <c r="E16">
+        <v>0.191</v>
+      </c>
       <c r="G16">
         <v>0</v>
       </c>
@@ -2353,85 +2368,85 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>289.9</v>
+        <v>412.3</v>
       </c>
       <c r="L16">
-        <v>0.02873768314201312</v>
+        <v>0.03277033740015101</v>
       </c>
       <c r="M16">
-        <v>79.2176</v>
+        <v>103.5152</v>
       </c>
       <c r="N16">
-        <v>0.05630648944487881</v>
+        <v>0.08722945984663351</v>
       </c>
       <c r="O16">
-        <v>0.2732583649534323</v>
+        <v>0.2510676691729323</v>
       </c>
       <c r="P16">
-        <v>54.01760000000001</v>
+        <v>62.11519999999999</v>
       </c>
       <c r="Q16">
-        <v>0.03839476864027294</v>
+        <v>0.05234279935956854</v>
       </c>
       <c r="R16">
-        <v>0.1863318385650225</v>
+        <v>0.1506553480475382</v>
       </c>
       <c r="S16">
-        <v>25.2</v>
+        <v>41.4</v>
       </c>
       <c r="T16">
-        <v>0.3181111268203025</v>
+        <v>0.3999412646645131</v>
       </c>
       <c r="U16">
-        <v>2131.9</v>
+        <v>4694</v>
       </c>
       <c r="V16">
-        <v>1.515317364418225</v>
+        <v>3.955506867784613</v>
       </c>
       <c r="W16">
-        <v>0.1427516249753792</v>
+        <v>0.1680456490727532</v>
       </c>
       <c r="X16">
-        <v>0.193441856751104</v>
+        <v>0.2328318865179864</v>
       </c>
       <c r="Y16">
-        <v>-0.05069023177572485</v>
+        <v>-0.06478623744523324</v>
       </c>
       <c r="Z16">
-        <v>0.3385735861721765</v>
+        <v>0.3413561455772789</v>
       </c>
       <c r="AA16">
         <v>0</v>
       </c>
       <c r="AB16">
-        <v>0.03053457273196033</v>
+        <v>0.02391259420402412</v>
       </c>
       <c r="AC16">
-        <v>-0.03053457273196033</v>
+        <v>-0.02391259420402412</v>
       </c>
       <c r="AD16">
-        <v>36535.8</v>
+        <v>39834.1</v>
       </c>
       <c r="AE16">
         <v>0</v>
       </c>
       <c r="AF16">
-        <v>36535.8</v>
+        <v>39834.1</v>
       </c>
       <c r="AG16">
-        <v>34403.9</v>
+        <v>35140.1</v>
       </c>
       <c r="AH16">
-        <v>0.9629204036613103</v>
+        <v>0.9710707738513146</v>
       </c>
       <c r="AI16">
-        <v>0.8753500964337483</v>
+        <v>0.8723171289858469</v>
       </c>
       <c r="AJ16">
-        <v>0.9607129692718397</v>
+        <v>0.9673326579825364</v>
       </c>
       <c r="AK16">
-        <v>0.8686405801053361</v>
+        <v>0.8576885432760485</v>
       </c>
       <c r="AL16">
         <v>0</v>
@@ -2456,8 +2471,11 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="F17">
-        <v>0.004</v>
+      <c r="D17">
+        <v>0.241</v>
+      </c>
+      <c r="E17">
+        <v>0.213</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -2466,400 +2484,97 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>-0.01210625912271561</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>-0.008901717863300372</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>458.9</v>
+        <v>664.5</v>
       </c>
       <c r="L17">
-        <v>0.04449033408954298</v>
+        <v>0.0611878453038674</v>
       </c>
       <c r="M17">
-        <v>126.868</v>
+        <v>426.8</v>
       </c>
       <c r="N17">
-        <v>0.03105703794369645</v>
+        <v>0.08580964252684063</v>
       </c>
       <c r="O17">
-        <v>0.27646110263674</v>
+        <v>0.6422874341610233</v>
       </c>
       <c r="P17">
-        <v>126.868</v>
+        <v>156.4</v>
       </c>
       <c r="Q17">
-        <v>0.03105703794369645</v>
+        <v>0.03144477059793317</v>
       </c>
       <c r="R17">
-        <v>0.27646110263674</v>
+        <v>0.235364936042137</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>270.4</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>0.633552014995314</v>
       </c>
       <c r="U17">
-        <v>1731.5</v>
+        <v>3122.3</v>
       </c>
       <c r="V17">
-        <v>0.4238678090575275</v>
+        <v>0.6277494068921147</v>
       </c>
       <c r="W17">
-        <v>0.0682856420100293</v>
+        <v>0.08760018983336848</v>
       </c>
       <c r="X17">
-        <v>0.1523681904044238</v>
+        <v>0.1112523862541887</v>
       </c>
       <c r="Y17">
-        <v>-0.08408254839439448</v>
+        <v>-0.02365219642082027</v>
       </c>
       <c r="Z17">
-        <v>0.157347835218531</v>
+        <v>0.1285928437964018</v>
       </c>
       <c r="AA17">
-        <v>-0.001400666035516441</v>
+        <v>0</v>
       </c>
       <c r="AB17">
-        <v>0.03520939722863552</v>
+        <v>0.02874159770125425</v>
       </c>
       <c r="AC17">
-        <v>-0.03661006326415196</v>
+        <v>-0.02874159770125425</v>
       </c>
       <c r="AD17">
-        <v>78930.3</v>
+        <v>72541.3</v>
       </c>
       <c r="AE17">
-        <v>862.3561017358122</v>
+        <v>0</v>
       </c>
       <c r="AF17">
-        <v>79792.65610173582</v>
+        <v>72541.3</v>
       </c>
       <c r="AG17">
-        <v>78061.15610173582</v>
+        <v>69419</v>
       </c>
       <c r="AH17">
-        <v>0.9512981145414308</v>
+        <v>0.9358344374192898</v>
       </c>
       <c r="AI17">
-        <v>0.9126362064357163</v>
+        <v>0.8981907735891576</v>
       </c>
       <c r="AJ17">
-        <v>0.9502715623730362</v>
+        <v>0.933141379273263</v>
       </c>
       <c r="AK17">
-        <v>0.9108710796141763</v>
+        <v>0.8940965849449071</v>
       </c>
       <c r="AL17">
         <v>0</v>
       </c>
       <c r="AM17">
         <v>0</v>
-      </c>
-      <c r="AN17">
-        <v>1658.199579831933</v>
-      </c>
-      <c r="AP17">
-        <v>1639.940254238147</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>South Korea</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>PAXNet, Inc. (KOSDAQ:A038160)</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
-        </is>
-      </c>
-      <c r="D18">
-        <v>-0.119</v>
-      </c>
-      <c r="G18">
-        <v>0.1452991452991453</v>
-      </c>
-      <c r="H18">
-        <v>-0.1207264957264957</v>
-      </c>
-      <c r="I18">
-        <v>-1.581196581196581</v>
-      </c>
-      <c r="J18">
-        <v>-1.581196581196581</v>
-      </c>
-      <c r="K18">
-        <v>-25.4</v>
-      </c>
-      <c r="L18">
-        <v>-2.713675213675214</v>
-      </c>
-      <c r="M18">
-        <v>0.88</v>
-      </c>
-      <c r="N18">
-        <v>0.02328042328042328</v>
-      </c>
-      <c r="O18">
-        <v>-0.03464566929133858</v>
-      </c>
-      <c r="P18">
-        <v>0.047</v>
-      </c>
-      <c r="Q18">
-        <v>0.001243386243386243</v>
-      </c>
-      <c r="R18">
-        <v>-0.001850393700787402</v>
-      </c>
-      <c r="S18">
-        <v>0.833</v>
-      </c>
-      <c r="T18">
-        <v>0.946590909090909</v>
-      </c>
-      <c r="U18">
-        <v>1.61</v>
-      </c>
-      <c r="V18">
-        <v>0.0425925925925926</v>
-      </c>
-      <c r="W18">
-        <v>-0.6120481927710844</v>
-      </c>
-      <c r="X18">
-        <v>0.03549251321997758</v>
-      </c>
-      <c r="Y18">
-        <v>-0.6475407059910619</v>
-      </c>
-      <c r="Z18">
-        <v>0.2768657378649392</v>
-      </c>
-      <c r="AA18">
-        <v>-0.4377791581625107</v>
-      </c>
-      <c r="AB18">
-        <v>0.0369452498331015</v>
-      </c>
-      <c r="AC18">
-        <v>-0.4747244079956122</v>
-      </c>
-      <c r="AD18">
-        <v>46.1</v>
-      </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-      <c r="AF18">
-        <v>46.1</v>
-      </c>
-      <c r="AG18">
-        <v>44.49</v>
-      </c>
-      <c r="AH18">
-        <v>0.5494636471990465</v>
-      </c>
-      <c r="AI18">
-        <v>0.7866894197952219</v>
-      </c>
-      <c r="AJ18">
-        <v>0.5406489245351805</v>
-      </c>
-      <c r="AK18">
-        <v>0.7806632742586419</v>
-      </c>
-      <c r="AL18">
-        <v>2.21</v>
-      </c>
-      <c r="AM18">
-        <v>1.453</v>
-      </c>
-      <c r="AN18">
-        <v>-3.573643410852713</v>
-      </c>
-      <c r="AO18">
-        <v>-6.696832579185521</v>
-      </c>
-      <c r="AP18">
-        <v>-3.448837209302326</v>
-      </c>
-      <c r="AQ18">
-        <v>-10.18582243633861</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>South Korea</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Sk No.5 Special Purpose Acqusition Co., Ltd. (KOSDAQ:A337450)</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
-        </is>
-      </c>
-      <c r="K19">
-        <v>-0.015</v>
-      </c>
-      <c r="M19">
-        <v>-0</v>
-      </c>
-      <c r="N19">
-        <v>-0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>-0</v>
-      </c>
-      <c r="Q19">
-        <v>-0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0.02770925042784321</v>
-      </c>
-      <c r="AB19">
-        <v>0.02770925042784321</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
-      <c r="AH19">
-        <v>0</v>
-      </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
-      <c r="AL19">
-        <v>0</v>
-      </c>
-      <c r="AM19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>South Korea</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Yuanta 4 SPECIAL PURPOSE ACQUISITION CO., LTD. (KOSDAQ:A313750)</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
-        </is>
-      </c>
-      <c r="K20">
-        <v>-0.07099999999999999</v>
-      </c>
-      <c r="M20">
-        <v>-0</v>
-      </c>
-      <c r="N20">
-        <v>-0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>-0</v>
-      </c>
-      <c r="Q20">
-        <v>-0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>1.32</v>
-      </c>
-      <c r="V20">
-        <v>0.1592279855247286</v>
-      </c>
-      <c r="X20">
-        <v>0.02840749139328837</v>
-      </c>
-      <c r="AB20">
-        <v>0.02872346106486307</v>
-      </c>
-      <c r="AD20">
-        <v>0.907</v>
-      </c>
-      <c r="AE20">
-        <v>0</v>
-      </c>
-      <c r="AF20">
-        <v>0.907</v>
-      </c>
-      <c r="AG20">
-        <v>-0.413</v>
-      </c>
-      <c r="AH20">
-        <v>0.09861911492878114</v>
-      </c>
-      <c r="AI20">
-        <v>0.1110566915636097</v>
-      </c>
-      <c r="AJ20">
-        <v>-0.05243112860225976</v>
-      </c>
-      <c r="AK20">
-        <v>-0.06031838761501388</v>
-      </c>
-      <c r="AL20">
-        <v>0.018</v>
-      </c>
-      <c r="AM20">
-        <v>0.018</v>
-      </c>
-      <c r="AO20">
-        <v>-4.111111111111112</v>
-      </c>
-      <c r="AQ20">
-        <v>-4.111111111111112</v>
       </c>
     </row>
   </sheetData>
